--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\college-course\4002\dynamic machine\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F16DBDD-9566-4D00-81C7-EFA6D73F85AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E943D3DD-156A-4C90-BF12-52312E3910A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DB3AA247-F580-4CD8-8440-3035D951BE26}"/>
+    <workbookView xWindow="-180" yWindow="5412" windowWidth="23040" windowHeight="8340" xr2:uid="{DB3AA247-F580-4CD8-8440-3035D951BE26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>H</t>
   </si>
@@ -120,18 +120,6 @@
   </si>
   <si>
     <t>θ</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>300mm</t>
-  </si>
-  <si>
-    <t>200mm</t>
   </si>
 </sst>
 </file>
@@ -498,29 +486,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80AC3B8A-1022-4DBD-A268-6A59184F2C54}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1">
+        <f>SUM(D3,D4,D5)-D1</f>
+        <v>1066</v>
+      </c>
       <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1">
-        <v>9929423</v>
+      <c r="D1">
+        <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -530,17 +519,11 @@
       <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2">
-        <v>4</v>
+      <c r="D2">
+        <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -551,17 +534,10 @@
         <v>12</v>
       </c>
       <c r="D3">
-        <f>700  - 10 *(H3 + H2)</f>
         <v>640</v>
       </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
     </row>
-    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -572,11 +548,10 @@
         <v>13</v>
       </c>
       <c r="D4">
-        <f>640-60</f>
         <v>580</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -587,11 +562,10 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <f>140 + H2+H3</f>
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\college-course\4002\dynamic machine\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E943D3DD-156A-4C90-BF12-52312E3910A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFCA16C-0414-4E28-8B1C-81328E4E7DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-180" yWindow="5412" windowWidth="23040" windowHeight="8340" xr2:uid="{DB3AA247-F580-4CD8-8440-3035D951BE26}"/>
+    <workbookView xWindow="0" yWindow="1536" windowWidth="23040" windowHeight="8340" xr2:uid="{DB3AA247-F580-4CD8-8440-3035D951BE26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>H</t>
   </si>
@@ -120,6 +120,15 @@
   </si>
   <si>
     <t>θ</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>200mm</t>
   </si>
 </sst>
 </file>
@@ -486,20 +495,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80AC3B8A-1022-4DBD-A268-6A59184F2C54}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <f>SUM(D3,D4,D5)-D1</f>
+        <f>SUM(D3:D5)-D1</f>
         <v>1066</v>
       </c>
       <c r="C1" t="s">
@@ -508,8 +517,11 @@
       <c r="D1">
         <v>300</v>
       </c>
+      <c r="G1">
+        <v>9929423</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -519,11 +531,17 @@
       <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2">
-        <v>200</v>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -534,10 +552,17 @@
         <v>12</v>
       </c>
       <c r="D3">
+        <f>700  - 10 *(H3 + H2)</f>
         <v>640</v>
       </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -548,10 +573,11 @@
         <v>13</v>
       </c>
       <c r="D4">
+        <f>640-60</f>
         <v>580</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -562,10 +588,11 @@
         <v>14</v>
       </c>
       <c r="D5">
+        <f>140 + H2+H3</f>
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
